--- a/pred_ohlcv/54_21/2019-10-30 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 BZNT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>74392.79519999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>74392.79519999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>60780.48609999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>33034.7362</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>33084.7362</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>32703.615</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-5662.862299999993</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>14294.64990000001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>81503.8395</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>51403.8395</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>51403.8395</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>43358.6552</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>19001.433</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>11404.2005</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>13404.2005</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>49201.4705</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>49201.4705</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>49211.4705</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>23059.3979</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>23059.3979</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>73059.3979</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>203059.3979</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>82305.66929999998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1510694.6871</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1692063.7259</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>575970.8994</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>594365.0996</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>612817.1769</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>601074.0677519452</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>601074.0677519452</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>676199.4665519452</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>676209.4665519452</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>676209.4665519452</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>685614.7528519452</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>767698.1634519452</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>576728.5702519452</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>546728.5702519452</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>508910.8943519451</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>508910.8943519451</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>535928.8921519452</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>535946.8921519452</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>362734.6699519452</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1714729.029243955</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1660608.396243955</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1672494.738743955</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1672494.738743955</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1672504.738743955</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1900720.728943955</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1900493.744816971</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2032951.947216971</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2032951.947216971</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-2068462.024816971</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2068452.024816971</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-2044536.758418569</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2490650.343018569</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2445046.408818569</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-2327878.997318569</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2281142.376518568</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 BZNT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>75114.51149999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>75014.51149999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>74392.79519999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>74392.79519999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>60780.48609999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>33034.7362</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>33084.7362</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>32703.615</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>77339.3649</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-5662.862299999993</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>14294.64990000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>81503.8395</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>51403.8395</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>51403.8395</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>43358.6552</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>19001.433</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>13404.2005</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>49201.4705</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>49201.4705</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>49211.4705</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>203059.3979</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>82305.66929999998</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1510694.6871</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1692063.7259</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1592063.7259</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1572970.8994</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>575970.8994</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>594365.0996</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>612817.1769</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>601074.0677519452</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>601074.0677519452</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>676199.4665519452</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>676209.4665519452</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>676209.4665519452</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>685614.7528519452</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>760211.7302519452</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>767698.1634519452</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>576728.5702519452</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>546728.5702519452</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>535946.8921519452</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>362734.6699519452</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>302734.6699519452</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>264270.4144519452</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>180081.1953519452</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-305541.6232480548</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1319942.214048055</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1714729.029243955</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1660608.396243955</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1672494.738743955</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1672494.738743955</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1672504.738743955</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1900720.728943955</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1900493.744816971</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2032951.947216971</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2032951.947216971</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-2068462.024816971</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2068452.024816971</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-2044536.758418569</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2455675.277018568</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2455675.277018568</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2281122.376518568</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2281142.376518568</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2281132.376518568</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2443903.722218568</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2443678.778398344</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2383652.741098344</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2194149.472498344</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2194137.472498344</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2259320.394498344</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2259308.394498344</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2259355.647898343</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2259516.315298344</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2259516.315298344</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2259516.315298344</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2283371.793498343</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1470590.976485731</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
